--- a/people-analytics-test/Book3.xlsx
+++ b/people-analytics-test/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidansell/Documents/GitHub/people-analytics-1/people-analytics-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{328B690C-4E48-6942-80D1-3ABDE73C5CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD9B2CF-4FF2-D64D-85DA-59D3B2810002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{5EE3335F-A67D-9C4D-9CC8-B558718B960F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>Baciu, Veronia</author>
   </authors>
   <commentList>
-    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{B311AF7E-E7C6-264E-8A6F-D6C163F3F3E5}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{B311AF7E-E7C6-264E-8A6F-D6C163F3F3E5}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{45324744-C1EF-C84C-BC8A-98B47807FFE6}">
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{45324744-C1EF-C84C-BC8A-98B47807FFE6}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Committed hires</t>
   </si>
@@ -111,9 +111,6 @@
     <t>EUROPE</t>
   </si>
   <si>
-    <t>ASG</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>Gallia</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -162,26 +156,29 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>UKI</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
     <t>UK</t>
   </si>
   <si>
-    <t>EBO</t>
-  </si>
-  <si>
     <t>hiring demand plan</t>
+  </si>
+  <si>
+    <t>DACH</t>
+  </si>
+  <si>
+    <t>EUCORP</t>
+  </si>
+  <si>
+    <t>BENELUX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,13 +188,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -225,18 +215,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -275,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -287,52 +271,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -515,81 +453,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -906,576 +826,550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F368C17-A301-2A4A-BD30-DB70419404CC}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <f t="shared" ref="B2:B10" si="0">SUM(C2+D2)</f>
+        <v>451</v>
+      </c>
+      <c r="C2" s="6">
+        <f>C3+C7+C11+C14+C16+C21+C24</f>
+        <v>245</v>
+      </c>
+      <c r="D2" s="6">
+        <f>D3+D7+D11+D14+D16+D21+D24</f>
+        <v>206</v>
+      </c>
+      <c r="E2" s="7">
+        <f>SUM(E3+E7+E11+E14+E16+E21+E24)</f>
+        <v>331</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2-B2</f>
+        <v>-120</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <f t="shared" ref="B5:B13" si="0">SUM(C5+D5)</f>
-        <v>451</v>
-      </c>
-      <c r="C5" s="12">
-        <f>C6+C10+C14+C17+C19+C24+C27</f>
-        <v>245</v>
-      </c>
-      <c r="D5" s="12">
-        <f>D6+D10+D14+D17+D19+D24+D27</f>
-        <v>206</v>
-      </c>
-      <c r="E5" s="13">
-        <f>SUM(E6+E10+E14+E17+E19+E24+E27)</f>
-        <v>331</v>
-      </c>
-      <c r="F5" s="13">
-        <f>E5-B5</f>
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C6" s="11">
-        <f t="shared" ref="C6:F6" si="1">SUM(C7:C9)</f>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:F3" si="1">SUM(C4:C6)</f>
         <v>28</v>
       </c>
-      <c r="D6" s="12">
-        <f>SUM(D7:D9)</f>
+      <c r="D3" s="6">
+        <f>SUM(D4:D6)</f>
         <v>4</v>
       </c>
-      <c r="E6" s="12">
-        <f>SUM(E7:E9)</f>
+      <c r="E3" s="6">
+        <f>SUM(E4:E6)</f>
         <v>31</v>
       </c>
-      <c r="F6" s="12">
-        <f>SUM(F7:F9)</f>
+      <c r="F3" s="6">
+        <f>SUM(F4:F6)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C4" s="8">
         <v>9</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="14">
-        <f>1+C7</f>
+      <c r="E4" s="8">
+        <f>1+C4</f>
         <v>10</v>
       </c>
-      <c r="F7" s="14">
-        <f>E7-B7</f>
+      <c r="F4" s="8">
+        <f>E4-B4</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C5" s="8">
         <v>6</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E5" s="8">
         <v>7</v>
       </c>
-      <c r="F8" s="14">
-        <f>E8-B8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="F5" s="8">
+        <f>E5-B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C6" s="8">
         <v>13</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E6" s="9">
         <v>14</v>
       </c>
-      <c r="F9" s="14">
-        <f>E9-B9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="F6" s="8">
+        <f>E6-B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="C10" s="11">
-        <f t="shared" ref="C10:F10" si="2">SUM(C11:C13)</f>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:F7" si="2">SUM(C8:C10)</f>
         <v>46</v>
       </c>
-      <c r="D10" s="12">
-        <f>SUM(D11:D13)</f>
+      <c r="D7" s="6">
+        <f>SUM(D8:D10)</f>
         <v>41</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E7" s="6">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F7" s="6">
+        <f>E7-B7</f>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8">
+        <f>E8-B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <f>SUM(C9+D9)</f>
+        <v>36</v>
+      </c>
+      <c r="C9" s="10">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9" si="3">E9-B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C10" s="11">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9">
+        <f>3+C10</f>
+        <v>15</v>
+      </c>
+      <c r="F10" s="8">
         <f>E10-B10</f>
         <v>-28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14">
-        <f t="shared" si="0"/>
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
+        <f>SUM(C11+D11)</f>
+        <v>56</v>
+      </c>
+      <c r="C11" s="5">
+        <f>SUM(C12:C13)</f>
+        <v>44</v>
+      </c>
+      <c r="D11" s="6">
+        <f>SUM(D12:D13)</f>
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <f>SUM(E12:E13)</f>
+        <v>56</v>
+      </c>
+      <c r="F11" s="6">
+        <f>E11-B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8">
+        <f>SUM(C12+D12)</f>
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8">
+        <f>E12-B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9">
+        <f>SUM(C13+D13)</f>
+        <v>45</v>
+      </c>
+      <c r="C13" s="9">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="14">
-        <v>6</v>
-      </c>
-      <c r="D11" s="14">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>8</v>
-      </c>
-      <c r="F11" s="14">
-        <f>E11-B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14">
-        <f>SUM(C12+D12)</f>
-        <v>36</v>
-      </c>
-      <c r="C12" s="16">
-        <v>28</v>
-      </c>
-      <c r="D12" s="14">
-        <v>8</v>
-      </c>
-      <c r="E12" s="14">
-        <v>36</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" ref="F12" si="3">E12-B12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C13" s="17">
-        <v>12</v>
-      </c>
-      <c r="D13" s="15">
-        <v>31</v>
-      </c>
-      <c r="E13" s="15">
-        <f>3+C13</f>
-        <v>15</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="E13" s="9">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8">
         <f>E13-B13</f>
-        <v>-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="A14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
         <f>SUM(C14+D14)</f>
-        <v>56</v>
-      </c>
-      <c r="C14" s="11">
-        <f>SUM(C15:C16)</f>
-        <v>44</v>
-      </c>
-      <c r="D14" s="12">
-        <f>SUM(D15:D16)</f>
-        <v>12</v>
-      </c>
-      <c r="E14" s="12">
-        <f>SUM(E15:E16)</f>
-        <v>56</v>
-      </c>
-      <c r="F14" s="12">
-        <f>E14-B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14">
-        <f>SUM(C15+D15)</f>
-        <v>11</v>
-      </c>
-      <c r="C15" s="14">
-        <v>7</v>
-      </c>
-      <c r="D15" s="14">
-        <v>4</v>
-      </c>
-      <c r="E15" s="14">
-        <v>11</v>
-      </c>
-      <c r="F15" s="14">
-        <f>E15-B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15">
-        <f>SUM(C16+D16)</f>
-        <v>45</v>
-      </c>
-      <c r="C16" s="15">
-        <v>37</v>
-      </c>
-      <c r="D16" s="15">
-        <v>8</v>
-      </c>
-      <c r="E16" s="15">
-        <v>45</v>
-      </c>
-      <c r="F16" s="14">
-        <f>E16-B16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <f>SUM(C17+D17)</f>
         <v>158</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C14" s="5">
         <f>57+1</f>
         <v>58</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D14" s="6">
         <v>100</v>
       </c>
-      <c r="E17" s="12">
-        <f>C17+35</f>
+      <c r="E14" s="6">
+        <f>C14+35</f>
         <v>93</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F14" s="6">
+        <f>E14-B14</f>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12">
+        <f>B15-C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <f>SUM(C16+D16)</f>
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUM(C17:C20)</f>
+        <v>25</v>
+      </c>
+      <c r="D16" s="6">
+        <f>SUM(D17:D20)</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="6">
+        <f>SUM(E17:E20)</f>
+        <v>31</v>
+      </c>
+      <c r="F16" s="6">
+        <f>E16-B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <f>SUM(C17+D17)</f>
+        <v>10</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8">
         <f>E17-B17</f>
-        <v>-65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18">
-        <f>B18-C18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B18" s="8">
+        <f t="shared" ref="B18:B20" si="4">SUM(C18+D18)</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F20" si="5">E18-B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
         <f>SUM(C19+D19)</f>
-        <v>31</v>
-      </c>
-      <c r="C19" s="11">
-        <f>SUM(C20:C23)</f>
-        <v>25</v>
-      </c>
-      <c r="D19" s="12">
-        <f>SUM(D20:D23)</f>
-        <v>6</v>
-      </c>
-      <c r="E19" s="12">
-        <f>SUM(E20:E23)</f>
-        <v>31</v>
-      </c>
-      <c r="F19" s="12">
-        <f>E19-B19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="14">
-        <f>SUM(C20+D20)</f>
         <v>10</v>
       </c>
-      <c r="C20" s="14">
-        <v>7</v>
-      </c>
-      <c r="D20" s="14">
-        <v>3</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="C19" s="8">
         <v>10</v>
       </c>
-      <c r="F20" s="14">
-        <f>E20-B20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="14">
-        <f t="shared" ref="B21:B23" si="4">SUM(C21+D21)</f>
-        <v>4</v>
-      </c>
-      <c r="C21" s="14">
-        <v>4</v>
-      </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>4</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" ref="F21:F23" si="5">E21-B21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="14">
-        <f>SUM(C22+D22)</f>
-        <v>10</v>
-      </c>
-      <c r="C22" s="14">
-        <v>10</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>10</v>
-      </c>
-      <c r="F22" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="14">
+      <c r="B20" s="8">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C20" s="11">
         <v>4</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D20" s="11">
         <v>3</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E20" s="11">
         <v>7</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F20" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5">
+        <f>(C21+D21)</f>
+        <v>76</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SUM(C22:C23)</f>
+        <v>35</v>
+      </c>
+      <c r="D21" s="6">
+        <f>SUM(D22:D23)</f>
+        <v>41</v>
+      </c>
+      <c r="E21" s="6">
+        <f>SUM(E22:E23)</f>
+        <v>50</v>
+      </c>
+      <c r="F21" s="6">
+        <f>E21-B21</f>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <f>(C22+D22)</f>
+        <v>15</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8">
+        <f>C22+4</f>
+        <v>8</v>
+      </c>
+      <c r="F22" s="8">
+        <f>E22-B22</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
+        <f>(C23+D23)</f>
+        <v>61</v>
+      </c>
+      <c r="C23" s="11">
+        <v>31</v>
+      </c>
+      <c r="D23" s="11">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11">
+        <v>42</v>
+      </c>
+      <c r="F23" s="11">
+        <f>E23-B23</f>
+        <v>-19</v>
+      </c>
+    </row>
     <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11">
-        <f>(C24+D24)</f>
-        <v>76</v>
-      </c>
-      <c r="C24" s="11">
-        <f>SUM(C25:C26)</f>
-        <v>35</v>
-      </c>
-      <c r="D24" s="12">
-        <f>SUM(D25:D26)</f>
-        <v>41</v>
-      </c>
-      <c r="E24" s="12">
-        <f>SUM(E25:E26)</f>
-        <v>50</v>
-      </c>
-      <c r="F24" s="12">
+      <c r="A24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5">
+        <f>SUM(C24+D24)</f>
+        <v>11</v>
+      </c>
+      <c r="C24" s="5">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>11</v>
+      </c>
+      <c r="F24" s="6">
         <f>E24-B24</f>
-        <v>-26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="14">
-        <f>(C25+D25)</f>
-        <v>15</v>
-      </c>
-      <c r="C25" s="14">
-        <v>4</v>
-      </c>
-      <c r="D25" s="14">
-        <v>11</v>
-      </c>
-      <c r="E25" s="14">
-        <f>C25+4</f>
-        <v>8</v>
-      </c>
-      <c r="F25" s="14">
-        <f>E25-B25</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="17">
-        <f>(C26+D26)</f>
-        <v>61</v>
-      </c>
-      <c r="C26" s="17">
-        <v>31</v>
-      </c>
-      <c r="D26" s="17">
-        <v>30</v>
-      </c>
-      <c r="E26" s="17">
-        <v>42</v>
-      </c>
-      <c r="F26" s="17">
-        <f>E26-B26</f>
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11">
-        <f>SUM(C27+D27)</f>
-        <v>11</v>
-      </c>
-      <c r="C27" s="11">
-        <v>9</v>
-      </c>
-      <c r="D27" s="12">
-        <v>2</v>
-      </c>
-      <c r="E27" s="12">
-        <v>11</v>
-      </c>
-      <c r="F27" s="12">
-        <f>E27-B27</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
